--- a/Data/invulinstructies.xlsx
+++ b/Data/invulinstructies.xlsx
@@ -5,7 +5,7 @@
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <xr:revisionPtr revIDLastSave="3" documentId="11_E9B12C96E968CEF111DD57F0763FC13F99071B29" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2EE092E9-D87C-474A-8824-E51CD102E310}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1950" yWindow="1950" windowWidth="21600" windowHeight="11175" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Attributen" sheetId="3" r:id="rId1"/>
@@ -8461,6 +8461,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -8752,7 +8756,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:O831"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A115" workbookViewId="0">
+      <selection activeCell="N134" sqref="N134"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
